--- a/leda-submission-server/conf/Monitores.xlsx
+++ b/leda-submission-server/conf/Monitores.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Matricula</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>Monitor 1</t>
+  </si>
+  <si>
+    <t>Monitor 2</t>
+  </si>
+  <si>
+    <t>monitor1@gmail.com</t>
+  </si>
+  <si>
+    <t>monitor2@gmail.com</t>
+  </si>
+  <si>
+    <t>4567</t>
   </si>
 </sst>
 </file>
@@ -355,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -390,6 +402,20 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leda-submission-server/conf/Monitores.xlsx
+++ b/leda-submission-server/conf/Monitores.xlsx
@@ -18,8 +18,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>cursou EDA e LEDA ha muito tempo.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Matricula</t>
   </si>
@@ -33,26 +55,128 @@
     <t>Fone</t>
   </si>
   <si>
-    <t>Monitor 1</t>
-  </si>
-  <si>
-    <t>Monitor 2</t>
-  </si>
-  <si>
-    <t>monitor1@gmail.com</t>
-  </si>
-  <si>
-    <t>monitor2@gmail.com</t>
-  </si>
-  <si>
-    <t>4567</t>
+    <t>Tipo de Participacao</t>
+  </si>
+  <si>
+    <t>Tipo de Monitor</t>
+  </si>
+  <si>
+    <t>Horario de preferência (se não tiver preferência, deixe em branco)</t>
+  </si>
+  <si>
+    <t>Disponibilidade</t>
+  </si>
+  <si>
+    <t>Marcos Williams Cavalcanti de Arruda</t>
+  </si>
+  <si>
+    <t>marcos.arruda@ccc.ufcg.edu.br</t>
+  </si>
+  <si>
+    <t>DID 1</t>
+  </si>
+  <si>
+    <t>Corretor</t>
+  </si>
+  <si>
+    <t>Gabriel Morais Lucio de Araujo</t>
+  </si>
+  <si>
+    <t>gabmla19@gmail.com</t>
+  </si>
+  <si>
+    <t>DID 2</t>
+  </si>
+  <si>
+    <t>Vélmer Oliveira Odon</t>
+  </si>
+  <si>
+    <t>velmer.odon@ccc.ufcg.edu.br</t>
+  </si>
+  <si>
+    <t>83 98633-6857</t>
+  </si>
+  <si>
+    <t>Francisco Angelim de Figueirêdo Filho</t>
+  </si>
+  <si>
+    <t>francisco.filho@ccc.ufcg.edu.br</t>
+  </si>
+  <si>
+    <t>(83) 8621-5252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ytalo luiz Ouriques Rodrigues </t>
+  </si>
+  <si>
+    <t>ytalo.rodrigues@ccc.ufcg.edu</t>
+  </si>
+  <si>
+    <t>Anarco Quaresma Zeferino Nascimento</t>
+  </si>
+  <si>
+    <t>anarco.nascimento@ccc.ufcg.edu.br</t>
+  </si>
+  <si>
+    <t>83 9 96796979</t>
+  </si>
+  <si>
+    <t>Desenvolvedor</t>
+  </si>
+  <si>
+    <t>Laybson Plismenn Sousa Cunha</t>
+  </si>
+  <si>
+    <t>laybson.cunha@ccc.ufcg.edu.br</t>
+  </si>
+  <si>
+    <t>Antunes Dantas da Silva</t>
+  </si>
+  <si>
+    <t>antunes.silva@ccc.ufcg.edu.br</t>
+  </si>
+  <si>
+    <t>Lucas Henrique de Lima e Silva</t>
+  </si>
+  <si>
+    <t>lucas.silva@ccc.ufcg.edu.br</t>
+  </si>
+  <si>
+    <t>81 998054501</t>
+  </si>
+  <si>
+    <t>Igor de Araújo Meira</t>
+  </si>
+  <si>
+    <t>igor.meira@ccc.ufcg.edu.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(83)987272773 </t>
+  </si>
+  <si>
+    <t>Daniyel Negromonte Nascimento Rocha</t>
+  </si>
+  <si>
+    <t>daniyel.rocha@ccc.ufcg.edu.br</t>
+  </si>
+  <si>
+    <t>(73) 98828-4680</t>
+  </si>
+  <si>
+    <t>Bolsa</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>Lucas Cavalcanti Rodrigues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -62,16 +186,31 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -79,14 +218,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,6 +282,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,22 +594,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -394,31 +623,262 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1234</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>114210695</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6">
+        <v>83999900395</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>114111359</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8333320610</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>115110575</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>115111033</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>114210821</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6">
+        <v>83999302796</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>114110419</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>114210198</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6">
+        <v>998309861</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>115110295</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6">
+        <v>83998695646</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>115110163</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>112210079</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>114210779</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>114211200</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/leda-submission-server/conf/Monitores.xlsx
+++ b/leda-submission-server/conf/Monitores.xlsx
@@ -1,20 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UFCG\leda\leda-tools\leda-submission-server\conf\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Página1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -24,16 +16,9 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B11">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>cursou EDA e LEDA ha muito tempo.</t>
-        </r>
+        <t xml:space="preserve">cursou EDA e LEDA ha muito tempo.</t>
       </text>
     </comment>
   </commentList>
@@ -41,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Matricula</t>
   </si>
@@ -175,24 +160,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -201,7 +180,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -210,13 +189,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -231,7 +209,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -239,378 +216,83 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Rectangle 2" hidden="1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="17.71"/>
+    <col customWidth="1" min="2" max="2" width="36.29"/>
+    <col customWidth="1" min="3" max="3" width="28.43"/>
+    <col customWidth="1" min="4" max="4" width="33.71"/>
+    <col customWidth="1" min="5" max="6" width="18.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,9 +318,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="4">
-        <v>114210695</v>
+        <v>1.14210695E8</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -647,7 +329,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="6">
-        <v>83999900395</v>
+        <v>8.3999900395E10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -656,9 +338,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="4">
-        <v>114111359</v>
+        <v>1.14111359E8</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -667,7 +349,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="6">
-        <v>8333320610</v>
+        <v>8.33332061E9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -676,9 +358,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="6">
-        <v>115110575</v>
+        <v>1.15110575E8</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>15</v>
@@ -696,9 +378,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="6">
-        <v>115111033</v>
+        <v>1.15111033E8</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>18</v>
@@ -716,9 +398,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="6">
-        <v>114210821</v>
+        <v>1.14210821E8</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>21</v>
@@ -727,7 +409,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="6">
-        <v>83999302796</v>
+        <v>8.3999302796E10</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -736,9 +418,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="6">
-        <v>114110419</v>
+        <v>1.14110419E8</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>23</v>
@@ -756,9 +438,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="6">
-        <v>114210198</v>
+        <v>1.14210198E8</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>27</v>
@@ -767,7 +449,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="6">
-        <v>998309861</v>
+        <v>9.98309861E8</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -776,9 +458,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" s="6">
-        <v>115110295</v>
+        <v>1.15110295E8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>29</v>
@@ -787,7 +469,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="6">
-        <v>83998695646</v>
+        <v>8.3998695646E10</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -796,9 +478,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="6">
-        <v>115110163</v>
+        <v>1.15110163E8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>31</v>
@@ -816,9 +498,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="6">
-        <v>112210079</v>
+        <v>1.12210079E8</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>34</v>
@@ -836,9 +518,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="6">
-        <v>114210779</v>
+        <v>1.14210779E8</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>37</v>
@@ -856,18 +538,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>114211200</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="13">
+      <c r="A13" s="9">
+        <v>1.142112E8</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>40</v>
@@ -877,8 +553,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/leda-submission-server/conf/Monitores.xlsx
+++ b/leda-submission-server/conf/Monitores.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>Matricula</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>(83) 998272800</t>
+  </si>
+  <si>
+    <t>Senha</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -363,11 +366,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -411,6 +425,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,6 +477,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -739,25 +806,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1002"/>
+  <dimension ref="A1:I1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,8 +849,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>115111901</v>
       </c>
@@ -808,8 +878,11 @@
       <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="4">
+        <v>115111901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>114110419</v>
       </c>
@@ -834,8 +907,11 @@
       <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="4">
+        <v>114110419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>115111271</v>
       </c>
@@ -860,8 +936,11 @@
       <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="4">
+        <v>115111271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>115110295</v>
       </c>
@@ -886,8 +965,11 @@
       <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="4">
+        <v>115110295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>114210779</v>
       </c>
@@ -912,8 +994,11 @@
       <c r="H6" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="4">
+        <v>114210779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>115111033</v>
       </c>
@@ -936,8 +1021,11 @@
       <c r="H7" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="4">
+        <v>115111033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>114111359</v>
       </c>
@@ -960,8 +1048,11 @@
       <c r="H8" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="4">
+        <v>114111359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>112210079</v>
       </c>
@@ -986,8 +1077,11 @@
       <c r="H9" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="4">
+        <v>112210079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>114210198</v>
       </c>
@@ -1010,8 +1104,11 @@
       <c r="H10" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="4">
+        <v>114210198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>114211200</v>
       </c>
@@ -1036,8 +1133,11 @@
       <c r="H11" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="4">
+        <v>114211200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>115110163</v>
       </c>
@@ -1062,8 +1162,11 @@
       <c r="H12" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="4">
+        <v>115110163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>115110721</v>
       </c>
@@ -1088,8 +1191,11 @@
       <c r="H13" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="4">
+        <v>115110721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>114210695</v>
       </c>
@@ -1112,8 +1218,11 @@
       <c r="H14" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="4">
+        <v>114210695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>113110905</v>
       </c>
@@ -1138,8 +1247,11 @@
       <c r="H15" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="4">
+        <v>113110905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>115110575</v>
       </c>
@@ -1152,18 +1264,21 @@
       <c r="D16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="13">
+        <v>115110575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>1610274</v>
       </c>
@@ -1176,9 +1291,15 @@
       <c r="D17" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="16">
+        <v>1610274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>2051962</v>
       </c>
@@ -1191,74 +1312,80 @@
       <c r="D18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="16">
+        <v>2051962</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
